--- a/1.xlsx
+++ b/1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">名词</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t xml:space="preserve">overlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">路由表与转发表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 L3 MISS事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel会向用户空间的flanned程序发起”L2 MISS”事件</t>
   </si>
 </sst>
 </file>
@@ -140,8 +149,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -221,30 +230,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.03"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -264,6 +282,19 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
